--- a/output/FebMarAprSaturdays.xlsx
+++ b/output/FebMarAprSaturdays.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\Documents\GitHub\earth-hour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ayush\Documents\GitHub\earth-hour\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A8F32-E644-4A5F-A4DB-8EE659B47BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B6EC9-7E19-441C-A55E-F0A0211FB34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,23 @@
     <sheet name="2021" sheetId="4" r:id="rId4"/>
     <sheet name="2022" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>03-Feb</t>
   </si>
@@ -216,6 +227,15 @@
   </si>
   <si>
     <t>30-Apr</t>
+  </si>
+  <si>
+    <t>AvgSat (NE)</t>
+  </si>
+  <si>
+    <t>RATIO</t>
+  </si>
+  <si>
+    <t>(Avg Saturday 8:30-9:30 demand not including Earth Hour)</t>
   </si>
 </sst>
 </file>
@@ -278,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -287,6 +307,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,10 +612,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>11927.20294135635</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11809.353616357161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11140.990045046659</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11706.14282365586</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>12196.673767384171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11851.66045184733</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>12220.37345070421</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3">
+        <v>12225.89643513481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>11835.791265549309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>11942.229304117849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12258.03039811415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12089.07890436143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12216.452482880321</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B2:B8,B10:B14)</f>
+        <v>11932.831620947902</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <f>B9/B16</f>
+        <v>1.0245595365371984</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687819A6-382A-4035-B2C6-60328EF2926F}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,119 +772,137 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>11927.20294135635</v>
+        <v>12153.33303765543</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>11809.353616357161</v>
+        <v>12264.014627797031</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>11140.990045046659</v>
+        <v>12305.30233966227</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B5">
-        <v>11706.14282365586</v>
+        <v>12255.108609475101</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B6">
-        <v>12196.673767384171</v>
+        <v>12179.15646520834</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B7">
-        <v>11851.66045184733</v>
+        <v>12420.995726327301</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>12220.37345070421</v>
+        <v>12312.21749540066</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>12225.89643513481</v>
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>12446.044589927569</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>11835.791265549309</v>
+      <c r="A10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>12276.638633309471</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B11">
-        <v>11942.229304117849</v>
+        <v>12353.24631896893</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>12258.03039811415</v>
+        <v>12913.01376439317</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B13">
-        <v>12089.07890436143</v>
+        <v>12563.37641201334</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>12216.452482880321</v>
+        <v>12352.58918501926</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B2:B9,B11:B14)</f>
+        <v>12376.533214320698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <f>B10/B16</f>
+        <v>0.99192871062668497</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{687819A6-382A-4035-B2C6-60328EF2926F}">
-  <dimension ref="A1:B14"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E27D-51C6-42AD-95D3-FA71019B7C17}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -728,106 +914,124 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B2">
-        <v>12153.33303765543</v>
+        <v>12590.28178284342</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>12264.014627797031</v>
+        <v>12555.144711362311</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B4">
-        <v>12305.30233966227</v>
+        <v>12870.28848911973</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B5">
-        <v>12255.108609475101</v>
+        <v>12575.11447007161</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>12179.15646520834</v>
+        <v>12720.66683620822</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B7">
-        <v>12420.995726327301</v>
+        <v>12507.9456287386</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B8">
-        <v>12312.21749540066</v>
+        <v>12924.2877916173</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B9">
-        <v>12446.044589927569</v>
+        <v>12718.27662249784</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
-        <v>12276.638633309471</v>
+        <v>12626.426293573701</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>12353.24631896893</v>
+        <v>12766.62522516249</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B12">
-        <v>12913.01376439317</v>
+        <v>12177.61236306614</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B13">
-        <v>12563.37641201334</v>
+        <v>12234.418559301759</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>12352.58918501926</v>
+        <v>11745.51856257866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B2:B9,B11:B14)</f>
+        <v>12532.18175354734</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <f>B10/B16</f>
+        <v>1.0075202021387604</v>
       </c>
     </row>
   </sheetData>
@@ -835,12 +1039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06E27D-51C6-42AD-95D3-FA71019B7C17}">
-  <dimension ref="A1:B14"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D7336-4431-4198-B464-5D458BB6BD3D}">
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,106 +1056,116 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B2">
-        <v>12590.28178284342</v>
+        <v>12738.382206922741</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B3">
-        <v>12555.144711362311</v>
+        <v>12010.920315340711</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>12870.28848911973</v>
+        <v>12433.649721262749</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B5">
-        <v>12575.11447007161</v>
+        <v>13002.753665572111</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B6">
-        <v>12720.66683620822</v>
+        <v>13138.67719199219</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B7">
-        <v>12507.9456287386</v>
+        <v>12720.33341683242</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B8">
-        <v>12924.2877916173</v>
+        <v>12864.57661918456</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9">
-        <v>12718.27662249784</v>
+      <c r="A9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <v>12539.042726694621</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="3">
-        <v>12626.426293573701</v>
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>13017.739390854489</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B11">
-        <v>12766.62522516249</v>
+        <v>13196.990473333881</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B12">
-        <v>12177.61236306614</v>
+        <v>12440.788602820359</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B13">
-        <v>12234.418559301759</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>11745.51856257866</v>
+        <v>12669.844566375599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15">
+        <f>AVERAGE(B2:B8,B10:B13)</f>
+        <v>12748.605106408348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16">
+        <f>B9/B15</f>
+        <v>0.98356193654407054</v>
       </c>
     </row>
   </sheetData>
@@ -959,12 +1173,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028D7336-4431-4198-B464-5D458BB6BD3D}">
-  <dimension ref="A1:B13"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92D002-72B4-4DED-AD67-A957A9A8FC92}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -976,122 +1190,6 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2">
-        <v>12738.382206922741</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3">
-        <v>12010.920315340711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4">
-        <v>12433.649721262749</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5">
-        <v>13002.753665572111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6">
-        <v>13138.67719199219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7">
-        <v>12720.33341683242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8">
-        <v>12864.57661918456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="3">
-        <v>12539.042726694621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10">
-        <v>13017.739390854489</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11">
-        <v>13196.990473333881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12">
-        <v>12440.788602820359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13">
-        <v>12669.844566375599</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B92D002-72B4-4DED-AD67-A957A9A8FC92}">
-  <dimension ref="A1:B14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B2">
@@ -1192,6 +1290,24 @@
       </c>
       <c r="B14">
         <v>13128.131096510429</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE(B2:B8,B10:B14)</f>
+        <v>13199.635241703219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17">
+        <f>B9/B16</f>
+        <v>1.0030395589665562</v>
       </c>
     </row>
   </sheetData>
